--- a/CartaGantt - Proyecto Diseño Web.xlsx
+++ b/CartaGantt - Proyecto Diseño Web.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cetecom\Documents\GitHub\Proyecto_practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4E7DD3-C970-4C4C-A7D0-B4CF1CC8515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83323AE6-860A-4723-BA02-8C2989D6C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EBAC5AF-CDB3-4C09-8182-D6AB0E2CECF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EBAC5AF-CDB3-4C09-8182-D6AB0E2CECF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Carta Gantt Proyecto" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,9 +69,6 @@
     <t>Mejora del diseño de la página web</t>
   </si>
   <si>
-    <t>Añadir funcionalidad a la página por medio de JavaScrip</t>
-  </si>
-  <si>
     <t>Generar Validaciones de datos</t>
   </si>
   <si>
@@ -96,6 +91,9 @@
   </si>
   <si>
     <t>Realizar los Mockups para el proyecto (6)</t>
+  </si>
+  <si>
+    <t>Añadir funcionalidad a la página por medio de JavaScript</t>
   </si>
 </sst>
 </file>
@@ -534,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BA48B5-EB65-4F3A-AA18-7ADB657A59BE}">
   <dimension ref="B2:EI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1676,7 @@
     </row>
     <row r="8" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>44996</v>
@@ -2554,7 +2552,7 @@
     </row>
     <row r="14" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4">
         <v>45034</v>
@@ -2700,7 +2698,7 @@
     </row>
     <row r="15" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <v>45048</v>
@@ -2846,7 +2844,7 @@
     </row>
     <row r="16" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>45054</v>
@@ -2992,7 +2990,7 @@
     </row>
     <row r="17" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>45058</v>
@@ -3138,7 +3136,7 @@
     </row>
     <row r="18" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>45073</v>
@@ -3284,7 +3282,7 @@
     </row>
     <row r="19" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4">
         <v>45089</v>
@@ -3430,7 +3428,7 @@
     </row>
     <row r="20" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4">
         <v>45096</v>
@@ -3576,7 +3574,7 @@
     </row>
     <row r="21" spans="2:139" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4">
         <v>45101</v>
